--- a/team_specific_matrix/Houston Christian_A.xlsx
+++ b/team_specific_matrix/Houston Christian_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2269503546099291</v>
+        <v>0.2354838709677419</v>
       </c>
       <c r="C2">
-        <v>0.4822695035460993</v>
+        <v>0.4741935483870968</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01418439716312057</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1595744680851064</v>
+        <v>0.1580645161290322</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1170212765957447</v>
+        <v>0.1161290322580645</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02142857142857143</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02142857142857143</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6714285714285714</v>
+        <v>0.6644736842105263</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2857142857142857</v>
+        <v>0.2960526315789473</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08888888888888889</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.4888888888888889</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4222222222222222</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03773584905660377</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01257861635220126</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05031446540880503</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2515723270440252</v>
+        <v>0.2637362637362637</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006289308176100629</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1949685534591195</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="R6">
-        <v>0.0440251572327044</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="S6">
-        <v>0.4025157232704403</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1304347826086956</v>
+        <v>0.1324503311258278</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04347826086956522</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02898550724637681</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1521739130434783</v>
+        <v>0.1456953642384106</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01449275362318841</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1449275362318841</v>
+        <v>0.1456953642384106</v>
       </c>
       <c r="R7">
-        <v>0.07246376811594203</v>
+        <v>0.06622516556291391</v>
       </c>
       <c r="S7">
-        <v>0.4130434782608696</v>
+        <v>0.4304635761589404</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09730848861283643</v>
+        <v>0.09578544061302682</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02070393374741201</v>
+        <v>0.0210727969348659</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05797101449275362</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1469979296066252</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01656314699792961</v>
+        <v>0.01532567049808429</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1532091097308489</v>
+        <v>0.157088122605364</v>
       </c>
       <c r="R8">
-        <v>0.07039337474120083</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="S8">
-        <v>0.4368530020703933</v>
+        <v>0.446360153256705</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1125827814569536</v>
+        <v>0.1073446327683616</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01324503311258278</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04635761589403974</v>
+        <v>0.06214689265536723</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1589403973509934</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01986754966887417</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.119205298013245</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="R9">
-        <v>0.09271523178807947</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="S9">
-        <v>0.4370860927152318</v>
+        <v>0.4350282485875706</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1173708920187793</v>
+        <v>0.1174934725848564</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0244131455399061</v>
+        <v>0.02349869451697128</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06384976525821597</v>
+        <v>0.06353350739773717</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1258215962441314</v>
+        <v>0.1218450826805918</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01126760563380282</v>
+        <v>0.0113141862489121</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2507042253521127</v>
+        <v>0.2541340295909487</v>
       </c>
       <c r="R10">
-        <v>0.04131455399061033</v>
+        <v>0.0391644908616188</v>
       </c>
       <c r="S10">
-        <v>0.3652582159624413</v>
+        <v>0.3690165361183638</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1471861471861472</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09090909090909091</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="K11">
-        <v>0.2207792207792208</v>
+        <v>0.2182539682539683</v>
       </c>
       <c r="L11">
-        <v>0.5194805194805194</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02164502164502164</v>
+        <v>0.01984126984126984</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7355371900826446</v>
+        <v>0.7218045112781954</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2066115702479339</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="L12">
-        <v>0.02479338842975207</v>
+        <v>0.03007518796992481</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03305785123966942</v>
+        <v>0.03007518796992481</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7241379310344828</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2068965517241379</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06896551724137931</v>
+        <v>0.06451612903225806</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01587301587301587</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1984126984126984</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="I15">
-        <v>0.06349206349206349</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="J15">
         <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.07142857142857142</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01587301587301587</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.253968253968254</v>
+        <v>0.2536231884057971</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01948051948051948</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1753246753246753</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="I16">
-        <v>0.1038961038961039</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="J16">
-        <v>0.4090909090909091</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="K16">
-        <v>0.06493506493506493</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006493506493506494</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03246753246753246</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1883116883116883</v>
+        <v>0.1927710843373494</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01715686274509804</v>
+        <v>0.01548672566371681</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2303921568627451</v>
+        <v>0.2389380530973451</v>
       </c>
       <c r="I17">
-        <v>0.09313725490196079</v>
+        <v>0.09734513274336283</v>
       </c>
       <c r="J17">
-        <v>0.4264705882352941</v>
+        <v>0.411504424778761</v>
       </c>
       <c r="K17">
-        <v>0.08088235294117647</v>
+        <v>0.0752212389380531</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01715686274509804</v>
+        <v>0.01548672566371681</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.02696078431372549</v>
+        <v>0.0331858407079646</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.107843137254902</v>
+        <v>0.1128318584070796</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.009259259259259259</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2037037037037037</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="I18">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J18">
-        <v>0.4907407407407408</v>
+        <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0.06481481481481481</v>
+        <v>0.0625</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1203703703703704</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.007853403141361256</v>
+        <v>0.01095461658841941</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2757417102966841</v>
+        <v>0.2652582159624413</v>
       </c>
       <c r="I19">
-        <v>0.07155322862129145</v>
+        <v>0.07902973395931143</v>
       </c>
       <c r="J19">
-        <v>0.3446771378708551</v>
+        <v>0.3395931142410016</v>
       </c>
       <c r="K19">
-        <v>0.1055846422338569</v>
+        <v>0.1048513302034429</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01570680628272251</v>
+        <v>0.01643192488262911</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.04973821989528796</v>
+        <v>0.04773082942097027</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1291448516579407</v>
+        <v>0.136150234741784</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Houston Christian_A.xlsx
+++ b/team_specific_matrix/Houston Christian_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2354838709677419</v>
+        <v>0.2322946175637394</v>
       </c>
       <c r="C2">
-        <v>0.4741935483870968</v>
+        <v>0.4844192634560907</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01612903225806452</v>
+        <v>0.0169971671388102</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1580645161290322</v>
+        <v>0.1643059490084986</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1161290322580645</v>
+        <v>0.1019830028328612</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="C3">
-        <v>0.01973684210526316</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01973684210526316</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6644736842105263</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2960526315789473</v>
+        <v>0.2937853107344633</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08333333333333333</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.4791666666666667</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4375</v>
+        <v>0.4509803921568628</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04395604395604396</v>
+        <v>0.05339805825242718</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01098901098901099</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05494505494505494</v>
+        <v>0.05339805825242718</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2637362637362637</v>
+        <v>0.2524271844660194</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01098901098901099</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1923076923076923</v>
+        <v>0.1941747572815534</v>
       </c>
       <c r="R6">
-        <v>0.03846153846153846</v>
+        <v>0.04368932038834952</v>
       </c>
       <c r="S6">
-        <v>0.3846153846153846</v>
+        <v>0.3737864077669903</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1324503311258278</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03973509933774835</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02649006622516556</v>
+        <v>0.03825136612021858</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1456953642384106</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01324503311258278</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1456953642384106</v>
+        <v>0.1748633879781421</v>
       </c>
       <c r="R7">
-        <v>0.06622516556291391</v>
+        <v>0.07650273224043716</v>
       </c>
       <c r="S7">
-        <v>0.4304635761589404</v>
+        <v>0.4098360655737705</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09578544061302682</v>
+        <v>0.1025210084033613</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0210727969348659</v>
+        <v>0.01848739495798319</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05747126436781609</v>
+        <v>0.06218487394957983</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1379310344827586</v>
+        <v>0.1378151260504202</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01532567049808429</v>
+        <v>0.01512605042016807</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.157088122605364</v>
+        <v>0.1579831932773109</v>
       </c>
       <c r="R8">
-        <v>0.06896551724137931</v>
+        <v>0.06890756302521009</v>
       </c>
       <c r="S8">
-        <v>0.446360153256705</v>
+        <v>0.4369747899159664</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1073446327683616</v>
+        <v>0.1036269430051813</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01694915254237288</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06214689265536723</v>
+        <v>0.06217616580310881</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1525423728813559</v>
+        <v>0.150259067357513</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01694915254237288</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1242937853107345</v>
+        <v>0.1243523316062176</v>
       </c>
       <c r="R9">
-        <v>0.0847457627118644</v>
+        <v>0.07772020725388601</v>
       </c>
       <c r="S9">
-        <v>0.4350282485875706</v>
+        <v>0.4507772020725389</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1174934725848564</v>
+        <v>0.1185770750988142</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02349869451697128</v>
+        <v>0.02371541501976284</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0007905138339920949</v>
       </c>
       <c r="F10">
-        <v>0.06353350739773717</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1218450826805918</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0113141862489121</v>
+        <v>0.01027667984189723</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2541340295909487</v>
+        <v>0.2513833992094862</v>
       </c>
       <c r="R10">
-        <v>0.0391644908616188</v>
+        <v>0.04189723320158103</v>
       </c>
       <c r="S10">
-        <v>0.3690165361183638</v>
+        <v>0.3707509881422925</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1507936507936508</v>
+        <v>0.1418685121107267</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0873015873015873</v>
+        <v>0.08650519031141868</v>
       </c>
       <c r="K11">
-        <v>0.2182539682539683</v>
+        <v>0.2041522491349481</v>
       </c>
       <c r="L11">
-        <v>0.5238095238095238</v>
+        <v>0.5501730103806228</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01984126984126984</v>
+        <v>0.01730103806228374</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7218045112781954</v>
+        <v>0.74375</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2105263157894737</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>0.007518796992481203</v>
+        <v>0.00625</v>
       </c>
       <c r="L12">
-        <v>0.03007518796992481</v>
+        <v>0.025</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03007518796992481</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7419354838709677</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1935483870967742</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06451612903225806</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02173913043478261</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1884057971014493</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="I15">
-        <v>0.07246376811594203</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="K15">
-        <v>0.06521739130434782</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02173913043478261</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="O15">
-        <v>0.04347826086956522</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2536231884057971</v>
+        <v>0.2565789473684211</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02409638554216868</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1686746987951807</v>
+        <v>0.1709844559585492</v>
       </c>
       <c r="I16">
-        <v>0.0963855421686747</v>
+        <v>0.09326424870466321</v>
       </c>
       <c r="J16">
-        <v>0.4036144578313253</v>
+        <v>0.4041450777202072</v>
       </c>
       <c r="K16">
-        <v>0.07228915662650602</v>
+        <v>0.06735751295336788</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006024096385542169</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03614457831325301</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1927710843373494</v>
+        <v>0.1968911917098446</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01548672566371681</v>
+        <v>0.01380670611439842</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2389380530973451</v>
+        <v>0.2544378698224852</v>
       </c>
       <c r="I17">
-        <v>0.09734513274336283</v>
+        <v>0.08875739644970414</v>
       </c>
       <c r="J17">
-        <v>0.411504424778761</v>
+        <v>0.4063116370808679</v>
       </c>
       <c r="K17">
-        <v>0.0752212389380531</v>
+        <v>0.07889546351084813</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01548672566371681</v>
+        <v>0.01380670611439842</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0331858407079646</v>
+        <v>0.03353057199211045</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1128318584070796</v>
+        <v>0.1104536489151874</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.008928571428571428</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1964285714285714</v>
+        <v>0.1755725190839695</v>
       </c>
       <c r="I18">
-        <v>0.07142857142857142</v>
+        <v>0.08396946564885496</v>
       </c>
       <c r="J18">
-        <v>0.5</v>
+        <v>0.5114503816793893</v>
       </c>
       <c r="K18">
-        <v>0.0625</v>
+        <v>0.06870229007633588</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01785714285714286</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.01785714285714286</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.125</v>
+        <v>0.1068702290076336</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01095461658841941</v>
+        <v>0.01057827926657264</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2652582159624413</v>
+        <v>0.2708039492242595</v>
       </c>
       <c r="I19">
-        <v>0.07902973395931143</v>
+        <v>0.07757404795486601</v>
       </c>
       <c r="J19">
-        <v>0.3395931142410016</v>
+        <v>0.3286318758815233</v>
       </c>
       <c r="K19">
-        <v>0.1048513302034429</v>
+        <v>0.1100141043723554</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01643192488262911</v>
+        <v>0.01904090267983075</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.04773082942097027</v>
+        <v>0.04724964739069112</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.136150234741784</v>
+        <v>0.1361071932299013</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Houston Christian_A.xlsx
+++ b/team_specific_matrix/Houston Christian_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2322946175637394</v>
+        <v>0.2318059299191375</v>
       </c>
       <c r="C2">
-        <v>0.4844192634560907</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0169971671388102</v>
+        <v>0.01617250673854448</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1643059490084986</v>
+        <v>0.1617250673854447</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1019830028328612</v>
+        <v>0.09973045822102426</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005649717514124294</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="C3">
-        <v>0.02259887005649718</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01694915254237288</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6610169491525424</v>
+        <v>0.6613756613756614</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2937853107344633</v>
+        <v>0.291005291005291</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07843137254901961</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.4705882352941176</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4509803921568628</v>
+        <v>0.4821428571428572</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05339805825242718</v>
+        <v>0.05909090909090909</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009708737864077669</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05339805825242718</v>
+        <v>0.05</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2524271844660194</v>
+        <v>0.2454545454545455</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01941747572815534</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1941747572815534</v>
+        <v>0.2</v>
       </c>
       <c r="R6">
-        <v>0.04368932038834952</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="S6">
-        <v>0.3737864077669903</v>
+        <v>0.3727272727272727</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1256830601092896</v>
+        <v>0.1206030150753769</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03278688524590164</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03825136612021858</v>
+        <v>0.04020100502512563</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1311475409836066</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01092896174863388</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1748633879781421</v>
+        <v>0.1708542713567839</v>
       </c>
       <c r="R7">
-        <v>0.07650273224043716</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="S7">
-        <v>0.4098360655737705</v>
+        <v>0.4221105527638191</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1025210084033613</v>
+        <v>0.1026856240126382</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01848739495798319</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06218487394957983</v>
+        <v>0.06477093206951026</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1378151260504202</v>
+        <v>0.1406003159557662</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01512605042016807</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1579831932773109</v>
+        <v>0.1627172195892575</v>
       </c>
       <c r="R8">
-        <v>0.06890756302521009</v>
+        <v>0.0679304897314376</v>
       </c>
       <c r="S8">
-        <v>0.4369747899159664</v>
+        <v>0.4281200631911533</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1036269430051813</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0155440414507772</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06217616580310881</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.150259067357513</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0155440414507772</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1243523316062176</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="R9">
-        <v>0.07772020725388601</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S9">
-        <v>0.4507772020725389</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1185770750988142</v>
+        <v>0.1165553080920564</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02371541501976284</v>
+        <v>0.0244988864142539</v>
       </c>
       <c r="E10">
-        <v>0.0007905138339920949</v>
+        <v>0.0007423904974016332</v>
       </c>
       <c r="F10">
-        <v>0.06086956521739131</v>
+        <v>0.06087602078693393</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1217391304347826</v>
+        <v>0.1202672605790646</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01027667984189723</v>
+        <v>0.009651076466221232</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2513833992094862</v>
+        <v>0.2487008166295472</v>
       </c>
       <c r="R10">
-        <v>0.04189723320158103</v>
+        <v>0.04305864884929473</v>
       </c>
       <c r="S10">
-        <v>0.3707509881422925</v>
+        <v>0.3756495916852264</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1418685121107267</v>
+        <v>0.1533546325878594</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08650519031141868</v>
+        <v>0.08945686900958466</v>
       </c>
       <c r="K11">
-        <v>0.2041522491349481</v>
+        <v>0.2108626198083067</v>
       </c>
       <c r="L11">
-        <v>0.5501730103806228</v>
+        <v>0.5303514376996805</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01730103806228374</v>
+        <v>0.01597444089456869</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.74375</v>
+        <v>0.7485029940119761</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.1976047904191617</v>
       </c>
       <c r="K12">
-        <v>0.00625</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="L12">
-        <v>0.025</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.025</v>
+        <v>0.02395209580838323</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7837837837837838</v>
+        <v>0.8</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1621621621621622</v>
+        <v>0.15</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05405405405405406</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02631578947368421</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1842105263157895</v>
+        <v>0.1790123456790123</v>
       </c>
       <c r="I15">
-        <v>0.07236842105263158</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="J15">
-        <v>0.3289473684210527</v>
+        <v>0.3271604938271605</v>
       </c>
       <c r="K15">
-        <v>0.06578947368421052</v>
+        <v>0.06790123456790123</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01973684210526316</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N15">
-        <v>0.006578947368421052</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="O15">
-        <v>0.03947368421052631</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2565789473684211</v>
+        <v>0.2530864197530864</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02072538860103627</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1709844559585492</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="I16">
-        <v>0.09326424870466321</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="J16">
-        <v>0.4041450777202072</v>
+        <v>0.4068627450980392</v>
       </c>
       <c r="K16">
-        <v>0.06735751295336788</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0155440414507772</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0310880829015544</v>
+        <v>0.03431372549019608</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1968911917098446</v>
+        <v>0.1862745098039216</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01380670611439842</v>
+        <v>0.01289134438305709</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2544378698224852</v>
+        <v>0.2467771639042357</v>
       </c>
       <c r="I17">
-        <v>0.08875739644970414</v>
+        <v>0.09023941068139964</v>
       </c>
       <c r="J17">
-        <v>0.4063116370808679</v>
+        <v>0.4088397790055249</v>
       </c>
       <c r="K17">
-        <v>0.07889546351084813</v>
+        <v>0.07734806629834254</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01380670611439842</v>
+        <v>0.01289134438305709</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03353057199211045</v>
+        <v>0.03314917127071823</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1104536489151874</v>
+        <v>0.1178637200736648</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01526717557251908</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1755725190839695</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="I18">
-        <v>0.08396946564885496</v>
+        <v>0.09929078014184398</v>
       </c>
       <c r="J18">
-        <v>0.5114503816793893</v>
+        <v>0.4822695035460993</v>
       </c>
       <c r="K18">
-        <v>0.06870229007633588</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01526717557251908</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.02290076335877863</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1068702290076336</v>
+        <v>0.1205673758865248</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01057827926657264</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2708039492242595</v>
+        <v>0.2717105263157895</v>
       </c>
       <c r="I19">
-        <v>0.07757404795486601</v>
+        <v>0.07763157894736843</v>
       </c>
       <c r="J19">
-        <v>0.3286318758815233</v>
+        <v>0.3282894736842105</v>
       </c>
       <c r="K19">
-        <v>0.1100141043723554</v>
+        <v>0.1105263157894737</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01904090267983075</v>
+        <v>0.01842105263157895</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0006578947368421052</v>
       </c>
       <c r="O19">
-        <v>0.04724964739069112</v>
+        <v>0.04736842105263158</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1361071932299013</v>
+        <v>0.1348684210526316</v>
       </c>
     </row>
   </sheetData>
